--- a/PLASTICOS REFORMA/7_ADMON_PROYECTO/Bitacora Semanal.xlsx
+++ b/PLASTICOS REFORMA/7_ADMON_PROYECTO/Bitacora Semanal.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="701"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="701" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="61">
   <si>
     <t>Grupo:</t>
   </si>
@@ -291,12 +291,33 @@
   <si>
     <t>Repositorio</t>
   </si>
+  <si>
+    <t>Antecedentes  la empresa/ Desripción de la Problemática</t>
+  </si>
+  <si>
+    <t>Descripción de productos y entregables</t>
+  </si>
+  <si>
+    <t>Objetivos</t>
+  </si>
+  <si>
+    <t>En la reunión se llevó acabo en CiBi (biblioteca) de la institución UTCV, los temas a tratar fueron la redacción de la descripción del problema, cuando y quien aria la entrevista a la empresa para profundizar más en la problemática, quien sería el encardo de la redacción de la minuta. Tambien se toco el tema de los antecedentes, Objetivos.</t>
+  </si>
+  <si>
+    <t>En la reunión se llevó acabo en CiBi (biblioteca) de la institución UTCV, los temas y actividades a tratar fueron apertura de escuela práctica, elaboración de la minuta 03 asimismo se llevó a cabo la especificación de los requisitos. En esta última reunión también se vio todo lo que faltaba por terminar y se concluyó quien se aria cargo de cada trabajo.</t>
+  </si>
+  <si>
+    <t>Aoertura escuela práctica</t>
+  </si>
+  <si>
+    <t>DESCRIPCION_DEL_PROYECTO</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -365,6 +386,13 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -662,7 +690,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -719,6 +747,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -782,6 +814,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -797,49 +865,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1415,7 +1459,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1425,7 +1469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="D16" sqref="D16:H16"/>
     </sheetView>
   </sheetViews>
@@ -1441,114 +1485,114 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="31"/>
     </row>
     <row r="3" spans="2:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="30"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="34"/>
     </row>
     <row r="4" spans="2:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="33"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="37"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C8" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C9" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C10" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="36">
+      <c r="D10" s="38">
         <v>2</v>
       </c>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C11" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>
@@ -1560,77 +1604,77 @@
       <c r="C13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C14" s="5">
         <v>1</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C15" s="5">
         <v>2</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C16" s="5">
         <v>3</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C17" s="5">
         <v>4</v>
       </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C18" s="5">
         <v>5</v>
       </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C19" s="5">
         <v>6</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -1659,8 +1703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K109"/>
   <sheetViews>
-    <sheetView zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="A10" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1678,40 +1722,40 @@
   <sheetData>
     <row r="2" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="40"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="42"/>
       <c r="J3" s="13"/>
       <c r="K3" s="13"/>
     </row>
     <row r="4" spans="2:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="41"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="45"/>
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
     </row>
     <row r="5" spans="2:11" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="44"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="46"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="48"/>
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
     </row>
@@ -1758,7 +1802,7 @@
       <c r="E9" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="65" t="s">
+      <c r="F9" s="26" t="s">
         <v>52</v>
       </c>
       <c r="G9" s="23"/>
@@ -1767,26 +1811,46 @@
       </c>
       <c r="I9" s="16"/>
     </row>
-    <row r="10" spans="2:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" ht="159" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="10">
         <v>2</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="12"/>
+      <c r="C10" s="19">
+        <v>42258</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="67" t="s">
+        <v>57</v>
+      </c>
       <c r="G10" s="23"/>
-      <c r="H10" s="11"/>
+      <c r="H10" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="I10" s="16"/>
     </row>
-    <row r="11" spans="2:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" ht="165" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="10"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="12"/>
+      <c r="C11" s="24">
+        <v>42266</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="67" t="s">
+        <v>58</v>
+      </c>
       <c r="G11" s="12"/>
-      <c r="H11" s="11"/>
+      <c r="H11" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="I11" s="16"/>
     </row>
     <row r="12" spans="2:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2780,7 +2844,8 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
@@ -2812,8 +2877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:U40"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="X14" sqref="X14"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2828,78 +2893,78 @@
   <sheetData>
     <row r="1" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:21" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="39"/>
-      <c r="U2" s="40"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="42"/>
     </row>
     <row r="3" spans="2:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="41"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="45"/>
     </row>
     <row r="4" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="44"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="46"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="48"/>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="59"/>
+      <c r="C6" s="53"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -2907,59 +2972,59 @@
         <v>31</v>
       </c>
       <c r="P6" s="25"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="64"/>
-      <c r="S6" s="64"/>
-      <c r="T6" s="64"/>
-      <c r="U6" s="64"/>
+      <c r="Q6" s="58"/>
+      <c r="R6" s="58"/>
+      <c r="S6" s="58"/>
+      <c r="T6" s="58"/>
+      <c r="U6" s="58"/>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="59"/>
+      <c r="C7" s="53"/>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
     </row>
     <row r="9" spans="2:21" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="60" t="s">
+      <c r="C9" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="60"/>
-      <c r="E9" s="57" t="s">
+      <c r="D9" s="54"/>
+      <c r="E9" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="55" t="s">
+      <c r="F9" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="61" t="s">
+      <c r="G9" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="62"/>
-      <c r="N9" s="62"/>
-      <c r="O9" s="62"/>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="62"/>
-      <c r="R9" s="62"/>
-      <c r="S9" s="62"/>
-      <c r="T9" s="62"/>
-      <c r="U9" s="63"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="57"/>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B10" s="58"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="56"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="50"/>
       <c r="G10" s="18">
         <v>1</v>
       </c>
@@ -3007,19 +3072,19 @@
       </c>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B11" s="53">
+      <c r="B11" s="66">
         <v>1</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="54"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="59"/>
       <c r="F11" s="4" t="s">
         <v>37</v>
       </c>
       <c r="G11" s="20"/>
-      <c r="H11" s="66"/>
+      <c r="H11" s="27"/>
       <c r="I11" s="21"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
@@ -3035,10 +3100,10 @@
       <c r="U11" s="4"/>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B12" s="53"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="52"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="60"/>
       <c r="F12" s="4" t="s">
         <v>36</v>
       </c>
@@ -3059,17 +3124,19 @@
       <c r="U12" s="4"/>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B13" s="53">
+      <c r="B13" s="66">
         <v>2</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="51"/>
+      <c r="C13" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="69"/>
+      <c r="E13" s="65"/>
       <c r="F13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
       <c r="I13" s="22"/>
       <c r="J13" s="22"/>
       <c r="K13" s="22"/>
@@ -3085,16 +3152,16 @@
       <c r="U13" s="4"/>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B14" s="53"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="52"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="60"/>
       <c r="F14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
       <c r="J14" s="22"/>
       <c r="K14" s="22"/>
       <c r="L14" s="22"/>
@@ -3109,18 +3176,20 @@
       <c r="U14" s="4"/>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B15" s="53">
+      <c r="B15" s="66">
         <v>3</v>
       </c>
-      <c r="C15" s="47"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="51"/>
+      <c r="C15" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="62"/>
+      <c r="E15" s="65"/>
       <c r="F15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
       <c r="J15" s="22"/>
       <c r="K15" s="22"/>
       <c r="L15" s="22"/>
@@ -3135,16 +3204,16 @@
       <c r="U15" s="4"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B16" s="53"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="52"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="60"/>
       <c r="F16" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
       <c r="J16" s="22"/>
       <c r="K16" s="22"/>
       <c r="L16" s="22"/>
@@ -3159,17 +3228,19 @@
       <c r="U16" s="4"/>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B17" s="53">
+      <c r="B17" s="66">
         <v>4</v>
       </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="51"/>
+      <c r="C17" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="62"/>
+      <c r="E17" s="65"/>
       <c r="F17" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
       <c r="I17" s="22"/>
       <c r="J17" s="22"/>
       <c r="K17" s="22"/>
@@ -3185,14 +3256,14 @@
       <c r="U17" s="4"/>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B18" s="53"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="52"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="60"/>
       <c r="F18" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G18" s="22"/>
+      <c r="G18" s="20"/>
       <c r="H18" s="22"/>
       <c r="I18" s="22"/>
       <c r="J18" s="22"/>
@@ -3209,17 +3280,19 @@
       <c r="U18" s="4"/>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B19" s="53">
+      <c r="B19" s="66">
         <v>5</v>
       </c>
-      <c r="C19" s="47"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="51"/>
+      <c r="C19" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="62"/>
+      <c r="E19" s="65"/>
       <c r="F19" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
       <c r="I19" s="22"/>
       <c r="J19" s="22"/>
       <c r="K19" s="22"/>
@@ -3235,15 +3308,15 @@
       <c r="U19" s="4"/>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B20" s="53"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="52"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="60"/>
       <c r="F20" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
       <c r="I20" s="22"/>
       <c r="J20" s="22"/>
       <c r="K20" s="22"/>
@@ -3259,18 +3332,20 @@
       <c r="U20" s="4"/>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B21" s="53">
+      <c r="B21" s="66">
         <v>6</v>
       </c>
-      <c r="C21" s="47"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="51"/>
+      <c r="C21" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="62"/>
+      <c r="E21" s="65"/>
       <c r="F21" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
       <c r="J21" s="22"/>
       <c r="K21" s="22"/>
       <c r="L21" s="22"/>
@@ -3285,16 +3360,16 @@
       <c r="U21" s="4"/>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B22" s="53"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="52"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="60"/>
       <c r="F22" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
       <c r="J22" s="22"/>
       <c r="K22" s="22"/>
       <c r="L22" s="22"/>
@@ -3309,12 +3384,12 @@
       <c r="U22" s="4"/>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B23" s="53">
+      <c r="B23" s="66">
         <v>7</v>
       </c>
-      <c r="C23" s="47"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="51"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="65"/>
       <c r="F23" s="4" t="s">
         <v>37</v>
       </c>
@@ -3335,10 +3410,10 @@
       <c r="U23" s="4"/>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B24" s="53"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="52"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="60"/>
       <c r="F24" s="4" t="s">
         <v>36</v>
       </c>
@@ -3359,12 +3434,12 @@
       <c r="U24" s="4"/>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B25" s="53">
+      <c r="B25" s="66">
         <v>8</v>
       </c>
-      <c r="C25" s="47"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="51"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="65"/>
       <c r="F25" s="4" t="s">
         <v>37</v>
       </c>
@@ -3385,10 +3460,10 @@
       <c r="U25" s="4"/>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B26" s="53"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="52"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="60"/>
       <c r="F26" s="4" t="s">
         <v>36</v>
       </c>
@@ -3409,12 +3484,12 @@
       <c r="U26" s="21"/>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B27" s="53">
+      <c r="B27" s="66">
         <v>9</v>
       </c>
-      <c r="C27" s="47"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="51"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="65"/>
       <c r="F27" s="4" t="s">
         <v>37</v>
       </c>
@@ -3435,10 +3510,10 @@
       <c r="U27" s="21"/>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B28" s="53"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="52"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="60"/>
       <c r="F28" s="4" t="s">
         <v>36</v>
       </c>
@@ -3459,12 +3534,12 @@
       <c r="U28" s="4"/>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B29" s="53">
+      <c r="B29" s="66">
         <v>10</v>
       </c>
-      <c r="C29" s="47"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="51"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="65"/>
       <c r="F29" s="4" t="s">
         <v>37</v>
       </c>
@@ -3485,10 +3560,10 @@
       <c r="U29" s="4"/>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B30" s="53"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="52"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="60"/>
       <c r="F30" s="4" t="s">
         <v>36</v>
       </c>
@@ -3509,12 +3584,12 @@
       <c r="U30" s="4"/>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B31" s="53">
+      <c r="B31" s="66">
         <v>11</v>
       </c>
-      <c r="C31" s="47"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="51"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="65"/>
       <c r="F31" s="4" t="s">
         <v>37</v>
       </c>
@@ -3535,10 +3610,10 @@
       <c r="U31" s="4"/>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B32" s="53"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="52"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="60"/>
       <c r="F32" s="4" t="s">
         <v>36</v>
       </c>
@@ -3559,12 +3634,12 @@
       <c r="U32" s="4"/>
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B33" s="53">
+      <c r="B33" s="66">
         <v>12</v>
       </c>
-      <c r="C33" s="47"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="51"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="65"/>
       <c r="F33" s="4" t="s">
         <v>37</v>
       </c>
@@ -3585,10 +3660,10 @@
       <c r="U33" s="4"/>
     </row>
     <row r="34" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B34" s="53"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="52"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="60"/>
       <c r="F34" s="4" t="s">
         <v>36</v>
       </c>
@@ -3609,12 +3684,12 @@
       <c r="U34" s="4"/>
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B35" s="53">
+      <c r="B35" s="66">
         <v>13</v>
       </c>
-      <c r="C35" s="47"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="51"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="65"/>
       <c r="F35" s="4" t="s">
         <v>37</v>
       </c>
@@ -3635,10 +3710,10 @@
       <c r="U35" s="4"/>
     </row>
     <row r="36" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B36" s="53"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="52"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="60"/>
       <c r="F36" s="4" t="s">
         <v>36</v>
       </c>
@@ -3659,12 +3734,12 @@
       <c r="U36" s="4"/>
     </row>
     <row r="37" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B37" s="53">
+      <c r="B37" s="66">
         <v>14</v>
       </c>
-      <c r="C37" s="47"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="51"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="65"/>
       <c r="F37" s="4" t="s">
         <v>37</v>
       </c>
@@ -3685,10 +3760,10 @@
       <c r="U37" s="4"/>
     </row>
     <row r="38" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B38" s="53"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="50"/>
-      <c r="E38" s="52"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="64"/>
+      <c r="E38" s="60"/>
       <c r="F38" s="4" t="s">
         <v>36</v>
       </c>
@@ -3709,12 +3784,12 @@
       <c r="U38" s="4"/>
     </row>
     <row r="39" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B39" s="53">
+      <c r="B39" s="66">
         <v>15</v>
       </c>
-      <c r="C39" s="47"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="51"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="62"/>
+      <c r="E39" s="65"/>
       <c r="F39" s="4" t="s">
         <v>37</v>
       </c>
@@ -3735,10 +3810,10 @@
       <c r="U39" s="4"/>
     </row>
     <row r="40" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B40" s="53"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="50"/>
-      <c r="E40" s="52"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="63"/>
+      <c r="D40" s="64"/>
+      <c r="E40" s="60"/>
       <c r="F40" s="4" t="s">
         <v>36</v>
       </c>
@@ -3760,33 +3835,17 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="B2:U4"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="C9:D10"/>
-    <mergeCell ref="G9:U9"/>
-    <mergeCell ref="Q6:U6"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="C15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="C35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="C39:D40"/>
@@ -3803,17 +3862,33 @@
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="B2:U4"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="C9:D10"/>
+    <mergeCell ref="G9:U9"/>
+    <mergeCell ref="Q6:U6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="55" orientation="portrait" r:id="rId1"/>
